--- a/Задачи.xlsx
+++ b/Задачи.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Статусы &amp;quot; заменить на кавычки</t>
   </si>
@@ -49,6 +49,18 @@
   </si>
   <si>
     <t>Добавлена статистика "средний возраст", "средний стаж"</t>
+  </si>
+  <si>
+    <t>Создан стартовый экран на который выводятся новости текущего дня, а также анонс грядущих событий</t>
+  </si>
+  <si>
+    <t>Сделано v3.0.1.1</t>
+  </si>
+  <si>
+    <t>Оформлена стартовая страница. Выводятся текущие новости и грядущие события</t>
+  </si>
+  <si>
+    <t>Добавлен фоновый рисунок</t>
   </si>
 </sst>
 </file>
@@ -84,7 +96,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -107,16 +119,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -397,9 +421,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A15"/>
+  <dimension ref="A1:A19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
@@ -458,6 +482,26 @@
         <v>9</v>
       </c>
     </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
